--- a/AVIATION 2016.xlsx
+++ b/AVIATION 2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WSUadm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ado\Documents\GitHub\PHD_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Multi-Fidelity" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -10803,7 +10803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11437,6 +11437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -11472,6 +11489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -76861,8 +76895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77044,445 +77078,445 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>3200</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>3201</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>3209</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>3200</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>3201</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>3211</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>3522</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>3523</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>3525</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>3522</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>3523</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>3527</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>3522</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>3523</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>3529</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>3522</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>3523</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>3531</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>3522</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>3523</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>3533</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>3522</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>3523</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>3535</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="4" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -77505,6 +77539,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
